--- a/FixedScenarios.xlsx
+++ b/FixedScenarios.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squal\Documents\GitHubProject\BLRMPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DFF96C-638B-4D72-A596-1C6CDFE49831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E3442A-2D1C-4436-8A34-E05165165E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9560" yWindow="3100" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="8">
   <si>
     <t>Scenario</t>
   </si>
@@ -43,6 +44,12 @@
   </si>
   <si>
     <t>Flat</t>
+  </si>
+  <si>
+    <t>AllSafe</t>
+  </si>
+  <si>
+    <t>AllToxic</t>
   </si>
 </sst>
 </file>
@@ -362,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,4 +620,184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DF46CC-D28A-41B6-B60F-7C8B35DFDF8C}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7">
+        <v>4.3499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>800</v>
+      </c>
+      <c r="C8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0.40570000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>0.41520000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>0.43419999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>0.47220000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>400</v>
+      </c>
+      <c r="C14">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>800</v>
+      </c>
+      <c r="C15">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>